--- a/4_classification&evaluation/output/context_integration/evaluation_metrics.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_metrics.xlsx
@@ -562,76 +562,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6672843742850605</v>
+        <v>0.6607870052619538</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7088892234911315</v>
+        <v>0.7035922067296614</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6672843742850605</v>
+        <v>0.6607870052619538</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6662065631829821</v>
+        <v>0.6594390440119021</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6995195607412492</v>
+        <v>0.6758636467627545</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7354688905301465</v>
+        <v>0.7140070347185159</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6995195607412492</v>
+        <v>0.6758636467627545</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6972634051353677</v>
+        <v>0.6751043043023429</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7080759551590025</v>
+        <v>0.6951727293525508</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7534113441562489</v>
+        <v>0.7216533663203817</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7080759551590025</v>
+        <v>0.6951727293525508</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7099124329219381</v>
+        <v>0.6942983243939361</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7123541523678791</v>
+        <v>0.7596202242049875</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7421245055545139</v>
+        <v>0.7723836279450254</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7123541523678791</v>
+        <v>0.7596202242049875</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7108244891556594</v>
+        <v>0.758967210250951</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7059025394646533</v>
+        <v>0.7617250057195151</v>
       </c>
       <c r="S2" t="n">
-        <v>0.738168318628652</v>
+        <v>0.7721246267043769</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7059025394646533</v>
+        <v>0.7617250057195151</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7045880123662341</v>
+        <v>0.7612488421848909</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6887211164493251</v>
+        <v>0.7768474033401969</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7247213883853493</v>
+        <v>0.7859811711427482</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6887211164493251</v>
+        <v>0.7768474033401969</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6879470654247306</v>
+        <v>0.7771016277200313</v>
       </c>
     </row>
     <row r="3">
@@ -641,76 +641,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8069549302219172</v>
+        <v>0.8068862960420956</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8189114424730277</v>
+        <v>0.8165817752422347</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8069549302219172</v>
+        <v>0.8068862960420956</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8074579526910645</v>
+        <v>0.8068985724823365</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8090597117364448</v>
+        <v>0.8111873713109128</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8212033276228496</v>
+        <v>0.8197327317326465</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8090597117364448</v>
+        <v>0.8111873713109128</v>
       </c>
       <c r="I3" t="n">
-        <v>0.811267427939892</v>
+        <v>0.8127405508901064</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8218714253031344</v>
+        <v>0.8240677190574239</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8304473646044631</v>
+        <v>0.8341145190108777</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8218714253031344</v>
+        <v>0.8240677190574239</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8225533330830093</v>
+        <v>0.8242075632465828</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8027224891329215</v>
+        <v>0.8477236330359185</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8146369222698822</v>
+        <v>0.8563353892598808</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8027224891329215</v>
+        <v>0.8477236330359185</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8043005940055508</v>
+        <v>0.8477534818572938</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8048730267673301</v>
+        <v>0.8498512926103867</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8162781220435098</v>
+        <v>0.8581624833208151</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8048730267673301</v>
+        <v>0.8498512926103867</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8064418177407024</v>
+        <v>0.8498447448756513</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8219171814230153</v>
+        <v>0.8498055364905056</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8316948144271896</v>
+        <v>0.8559220440159205</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8219171814230153</v>
+        <v>0.8498055364905056</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.823661274305738</v>
+        <v>0.8494250209424117</v>
       </c>
     </row>
     <row r="4">
@@ -720,76 +720,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8455044612216884</v>
+        <v>0.8433310455273393</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8509076213699405</v>
+        <v>0.8487473843105618</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8455044612216884</v>
+        <v>0.8433310455273393</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8458983843706773</v>
+        <v>0.8434160106629898</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8755891100434683</v>
+        <v>0.8712880347746511</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8816151258139827</v>
+        <v>0.8775425274847303</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8755891100434683</v>
+        <v>0.8712880347746511</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8757721115084423</v>
+        <v>0.871549669972255</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8670098375657744</v>
+        <v>0.8498055364905056</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8733510671745327</v>
+        <v>0.8564366739764255</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8670098375657744</v>
+        <v>0.8498055364905056</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8672413023802837</v>
+        <v>0.8502511645780464</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8262640128117136</v>
+        <v>0.8541523678792039</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8329565385703098</v>
+        <v>0.8589862301481432</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8262640128117136</v>
+        <v>0.8541523678792039</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8271284706265192</v>
+        <v>0.853473523710947</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8262640128117136</v>
+        <v>0.8584534431480211</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8329565385703098</v>
+        <v>0.8632781427252849</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8262640128117136</v>
+        <v>0.8584534431480211</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8271284706265192</v>
+        <v>0.8578926526236801</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8347517730496454</v>
+        <v>0.8563029055136125</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8442453922108859</v>
+        <v>0.8610149354238773</v>
       </c>
       <c r="X4" t="n">
-        <v>0.8347517730496454</v>
+        <v>0.8563029055136125</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8357877769497429</v>
+        <v>0.8556654499841484</v>
       </c>
     </row>
     <row r="5">
@@ -799,28 +799,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8390757263784032</v>
+        <v>0.8348204072294669</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8497444560096697</v>
+        <v>0.8424913763141845</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8390757263784032</v>
+        <v>0.8348204072294669</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8374586063298777</v>
+        <v>0.8328226448728516</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8476778769160376</v>
+        <v>0.8498055364905056</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8584511983759375</v>
+        <v>0.8569006817846342</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8476778769160376</v>
+        <v>0.8498055364905056</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8465253800090917</v>
+        <v>0.8486362112405953</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -835,28 +835,28 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.789773507206589</v>
+        <v>0.8347746511095859</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8123513188442276</v>
+        <v>0.8453118490272775</v>
       </c>
       <c r="P5" t="n">
-        <v>0.789773507206589</v>
+        <v>0.8347746511095859</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7876267153240436</v>
+        <v>0.8329856798001873</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8090825897963854</v>
+        <v>0.8412262640128118</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8219375292961628</v>
+        <v>0.8519692035217915</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8090825897963854</v>
+        <v>0.8412262640128118</v>
       </c>
       <c r="U5" t="n">
-        <v>0.8083582184089859</v>
+        <v>0.8394283439992805</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -878,76 +878,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8455502173415695</v>
+        <v>0.8541066117593228</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8508333337242776</v>
+        <v>0.859921301250685</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8455502173415695</v>
+        <v>0.8541066117593228</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8451164043494905</v>
+        <v>0.8540234574043056</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8606039807824297</v>
+        <v>0.8755891100434683</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8661334229099644</v>
+        <v>0.8809666747163373</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8606039807824297</v>
+        <v>0.8755891100434683</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8606865914200459</v>
+        <v>0.8752460492178475</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8434225577671013</v>
+        <v>0.8219171814230153</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8564798576517616</v>
+        <v>0.8347579140389392</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8434225577671013</v>
+        <v>0.8219171814230153</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8451784425589406</v>
+        <v>0.8227163881853119</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8133607870052619</v>
+        <v>0.8540837336993823</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8201100888092512</v>
+        <v>0.8592373894203723</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8133607870052619</v>
+        <v>0.8540837336993823</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8144454003211992</v>
+        <v>0.85340309945919</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8198352779684284</v>
+        <v>0.8519103180050331</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8279514795455827</v>
+        <v>0.8594872292154676</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8198352779684284</v>
+        <v>0.8519103180050331</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8208256122704121</v>
+        <v>0.8510956953545248</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8069778082818578</v>
+        <v>0.8519103180050331</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8195316216567136</v>
+        <v>0.8563462984869019</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8069778082818578</v>
+        <v>0.8519103180050331</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.8091227472925946</v>
+        <v>0.851092372017099</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/context_integration/evaluation_metrics.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_metrics.xlsx
@@ -586,16 +586,16 @@
         <v>0.6751043043023429</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6951727293525508</v>
+        <v>0.6973690231068405</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7216533663203817</v>
+        <v>0.7208591480536559</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6951727293525508</v>
+        <v>0.6973690231068405</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6942983243939361</v>
+        <v>0.6953594983715047</v>
       </c>
       <c r="N2" t="n">
         <v>0.7596202242049875</v>
@@ -610,28 +610,28 @@
         <v>0.758967210250951</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7617250057195151</v>
+        <v>0.7660032029283916</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7721246267043769</v>
+        <v>0.7760820378100716</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7617250057195151</v>
+        <v>0.7660032029283916</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7612488421848909</v>
+        <v>0.7654431671124573</v>
       </c>
       <c r="V2" t="n">
         <v>0.7768474033401969</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7859811711427482</v>
+        <v>0.7877672318690958</v>
       </c>
       <c r="X2" t="n">
         <v>0.7768474033401969</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7771016277200313</v>
+        <v>0.7772809472569253</v>
       </c>
     </row>
     <row r="3">
@@ -653,28 +653,28 @@
         <v>0.8068985724823365</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8111873713109128</v>
+        <v>0.8133379089453214</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8197327317326465</v>
+        <v>0.8218721920011042</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8111873713109128</v>
+        <v>0.8133379089453214</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8127405508901064</v>
+        <v>0.8147808147714887</v>
       </c>
       <c r="J3" t="n">
         <v>0.8240677190574239</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8341145190108777</v>
+        <v>0.8331590494638522</v>
       </c>
       <c r="L3" t="n">
         <v>0.8240677190574239</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8242075632465828</v>
+        <v>0.8247243502739942</v>
       </c>
       <c r="N3" t="n">
         <v>0.8477236330359185</v>
@@ -689,28 +689,28 @@
         <v>0.8477534818572938</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8498512926103867</v>
+        <v>0.8519789521848548</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8581624833208151</v>
+        <v>0.8598142707282346</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8498512926103867</v>
+        <v>0.8519789521848548</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8498447448756513</v>
+        <v>0.852081097935892</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8498055364905056</v>
+        <v>0.8498284145504462</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8559220440159205</v>
+        <v>0.8581762562608208</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8498055364905056</v>
+        <v>0.8498284145504462</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8494250209424117</v>
+        <v>0.8496333227015507</v>
       </c>
     </row>
     <row r="4">
@@ -732,28 +732,28 @@
         <v>0.8434160106629898</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8712880347746511</v>
+        <v>0.8734385724090596</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8775425274847303</v>
+        <v>0.8801279785676346</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8712880347746511</v>
+        <v>0.8734385724090596</v>
       </c>
       <c r="I4" t="n">
-        <v>0.871549669972255</v>
+        <v>0.8738176868073346</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8498055364905056</v>
+        <v>0.8433996797071609</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8564366739764255</v>
+        <v>0.8505098024431348</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8498055364905056</v>
+        <v>0.8433996797071609</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8502511645780464</v>
+        <v>0.8440484512013443</v>
       </c>
       <c r="N4" t="n">
         <v>0.8541523678792039</v>
@@ -768,28 +768,28 @@
         <v>0.853473523710947</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8584534431480211</v>
+        <v>0.8606039807824297</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8632781427252849</v>
+        <v>0.8652903416814567</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8584534431480211</v>
+        <v>0.8606039807824297</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8578926526236801</v>
+        <v>0.8600211334618383</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8563029055136125</v>
+        <v>0.8605811027224892</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8610149354238773</v>
+        <v>0.8660553055821871</v>
       </c>
       <c r="X4" t="n">
-        <v>0.8563029055136125</v>
+        <v>0.8605811027224892</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8556654499841484</v>
+        <v>0.8599587702034434</v>
       </c>
     </row>
     <row r="5">
@@ -835,16 +835,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8347746511095859</v>
+        <v>0.8369251887439946</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8453118490272775</v>
+        <v>0.8474318443561014</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8347746511095859</v>
+        <v>0.8369251887439946</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8329856798001873</v>
+        <v>0.8351730171881542</v>
       </c>
       <c r="R5" t="n">
         <v>0.8412262640128118</v>
@@ -881,73 +881,73 @@
         <v>0.8541066117593228</v>
       </c>
       <c r="C6" t="n">
-        <v>0.859921301250685</v>
+        <v>0.8595629681419273</v>
       </c>
       <c r="D6" t="n">
         <v>0.8541066117593228</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8540234574043056</v>
+        <v>0.8539852933423724</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8755891100434683</v>
+        <v>0.8713109128345916</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8809666747163373</v>
+        <v>0.8755292665935478</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8755891100434683</v>
+        <v>0.8713109128345916</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8752460492178475</v>
+        <v>0.8709376453541209</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8219171814230153</v>
+        <v>0.8304735758407688</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8347579140389392</v>
+        <v>0.8403918233504697</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8219171814230153</v>
+        <v>0.8304735758407688</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8227163881853119</v>
+        <v>0.8307894683990016</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8540837336993823</v>
+        <v>0.8519331960649736</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8592373894203723</v>
+        <v>0.8577064876295909</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8540837336993823</v>
+        <v>0.8519331960649736</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.85340309945919</v>
+        <v>0.851240140726601</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8519103180050331</v>
+        <v>0.8691603752001831</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8594872292154676</v>
+        <v>0.874993950629074</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8519103180050331</v>
+        <v>0.8691603752001831</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8510956953545248</v>
+        <v>0.8685697322098177</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8519103180050331</v>
+        <v>0.8540379775795014</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8563462984869019</v>
+        <v>0.8589613235760376</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8519103180050331</v>
+        <v>0.8540379775795014</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.851092372017099</v>
+        <v>0.853904858120757</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/context_integration/evaluation_metrics.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_metrics.xlsx
@@ -565,73 +565,73 @@
         <v>0.6607870052619538</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7035922067296614</v>
+        <v>0.7020509200022044</v>
       </c>
       <c r="D2" t="n">
         <v>0.6607870052619538</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6594390440119021</v>
+        <v>0.6591064774027398</v>
       </c>
       <c r="F2" t="n">
         <v>0.6758636467627545</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7140070347185159</v>
+        <v>0.7159537408372849</v>
       </c>
       <c r="H2" t="n">
         <v>0.6758636467627545</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6751043043023429</v>
+        <v>0.6754103730229087</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6973690231068405</v>
+        <v>0.6736902310684053</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7208591480536559</v>
+        <v>0.7207704319285049</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6973690231068405</v>
+        <v>0.6736902310684053</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6953594983715047</v>
+        <v>0.6812638326675795</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7596202242049875</v>
+        <v>0.7617707618393961</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7723836279450254</v>
+        <v>0.7746930423729357</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7596202242049875</v>
+        <v>0.7617707618393961</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.758967210250951</v>
+        <v>0.7611321514088113</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7660032029283916</v>
+        <v>0.7725692061313202</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7760820378100716</v>
+        <v>0.7778172554919252</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7660032029283916</v>
+        <v>0.7725692061313202</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7654431671124573</v>
+        <v>0.7712238612542054</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7768474033401969</v>
+        <v>0.7682452528025625</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7877672318690958</v>
+        <v>0.7826359218639817</v>
       </c>
       <c r="X2" t="n">
-        <v>0.7768474033401969</v>
+        <v>0.7682452528025625</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7772809472569253</v>
+        <v>0.7674291100701333</v>
       </c>
     </row>
     <row r="3">
@@ -641,76 +641,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8068862960420956</v>
+        <v>0.8112102493708534</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8165817752422347</v>
+        <v>0.8207966514864495</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8068862960420956</v>
+        <v>0.8112102493708534</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8068985724823365</v>
+        <v>0.8111071707280153</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8133379089453214</v>
+        <v>0.8112102493708534</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8218721920011042</v>
+        <v>0.8242138907844732</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8133379089453214</v>
+        <v>0.8112102493708534</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8147808147714887</v>
+        <v>0.8125024364594374</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8240677190574239</v>
+        <v>0.8197208876687258</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8331590494638522</v>
+        <v>0.8284665768499497</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8240677190574239</v>
+        <v>0.8197208876687258</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8247243502739942</v>
+        <v>0.8199223638417941</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8477236330359185</v>
+        <v>0.8455730954015099</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8563353892598808</v>
+        <v>0.8545911030801108</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8477236330359185</v>
+        <v>0.8455730954015099</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8477534818572938</v>
+        <v>0.8456102159964825</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8519789521848548</v>
+        <v>0.8541294898192634</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8598142707282346</v>
+        <v>0.8619421711243861</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8519789521848548</v>
+        <v>0.8541294898192634</v>
       </c>
       <c r="U3" t="n">
-        <v>0.852081097935892</v>
+        <v>0.8541764935796747</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8498284145504462</v>
+        <v>0.8541066117593228</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8581762562608208</v>
+        <v>0.8615440293584173</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8498284145504462</v>
+        <v>0.8541066117593228</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8496333227015507</v>
+        <v>0.8539940367270453</v>
       </c>
     </row>
     <row r="4">
@@ -720,76 +720,76 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0.8368794326241135</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8428092006304425</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8368794326241135</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.837042800867278</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8669869595058339</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8733827777519755</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8669869595058339</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8672795407235553</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.8433310455273393</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.8487473843105618</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="K4" t="n">
+        <v>0.849635434910638</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.8433310455273393</v>
       </c>
-      <c r="E4" t="n">
-        <v>0.8434160106629898</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8734385724090596</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8801279785676346</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8734385724090596</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.8738176868073346</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.8433996797071609</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.8505098024431348</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.8433996797071609</v>
-      </c>
       <c r="M4" t="n">
-        <v>0.8440484512013443</v>
+        <v>0.8436890525666965</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8541523678792039</v>
+        <v>0.8498741706703271</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8589862301481432</v>
+        <v>0.8566625970168582</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8541523678792039</v>
+        <v>0.8498741706703271</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.853473523710947</v>
+        <v>0.8494232240342564</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8606039807824297</v>
+        <v>0.8563257835735529</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8652903416814567</v>
+        <v>0.8625464660246662</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8606039807824297</v>
+        <v>0.8563257835735529</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8600211334618383</v>
+        <v>0.8560758551987654</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8605811027224892</v>
+        <v>0.8563257835735529</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8660553055821871</v>
+        <v>0.8625464660246662</v>
       </c>
       <c r="X4" t="n">
-        <v>0.8605811027224892</v>
+        <v>0.8563257835735529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8599587702034434</v>
+        <v>0.8560758551987654</v>
       </c>
     </row>
     <row r="5">
@@ -811,16 +811,16 @@
         <v>0.8328226448728516</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8498055364905056</v>
+        <v>0.8476778769160376</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8569006817846342</v>
+        <v>0.8568907361680995</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8498055364905056</v>
+        <v>0.8476778769160376</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8486362112405953</v>
+        <v>0.8461502014655187</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -878,76 +878,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8541066117593228</v>
+        <v>0.8476549988560971</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8595629681419273</v>
+        <v>0.8540070616832077</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8541066117593228</v>
+        <v>0.8476549988560971</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8539852933423724</v>
+        <v>0.8474796938251774</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8713109128345916</v>
+        <v>0.8734614504690003</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8755292665935478</v>
+        <v>0.8782816257816257</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8713109128345916</v>
+        <v>0.8734614504690003</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8709376453541209</v>
+        <v>0.8735016000842328</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8304735758407688</v>
+        <v>0.8305193319606496</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8403918233504697</v>
+        <v>0.8429270116841419</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8304735758407688</v>
+        <v>0.8305193319606496</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8307894683990016</v>
+        <v>0.8326587172502233</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8519331960649736</v>
+        <v>0.858361930908259</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8577064876295909</v>
+        <v>0.8631156795488881</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8519331960649736</v>
+        <v>0.858361930908259</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.851240140726601</v>
+        <v>0.8576040212183778</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8691603752001831</v>
+        <v>0.8648821779913064</v>
       </c>
       <c r="S6" t="n">
-        <v>0.874993950629074</v>
+        <v>0.8712407940098277</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8691603752001831</v>
+        <v>0.8648821779913064</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8685697322098177</v>
+        <v>0.8643766410690196</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8540379775795014</v>
+        <v>0.8519103180050331</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8589613235760376</v>
+        <v>0.8554689458440858</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8540379775795014</v>
+        <v>0.8519103180050331</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.853904858120757</v>
+        <v>0.8509369948730532</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/context_integration/evaluation_metrics.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_metrics.xlsx
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6607870052619538</v>
+        <v>0.6650652024708303</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7020509200022044</v>
+        <v>0.727838722474945</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6607870052619538</v>
+        <v>0.6650652024708303</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6591064774027398</v>
+        <v>0.6637261923393825</v>
       </c>
       <c r="F2" t="n">
         <v>0.6758636467627545</v>
@@ -598,16 +598,16 @@
         <v>0.6812638326675795</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7617707618393961</v>
+        <v>0.7874857012125374</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7746930423729357</v>
+        <v>0.800592546381022</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7617707618393961</v>
+        <v>0.7874857012125374</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7611321514088113</v>
+        <v>0.7853567617702084</v>
       </c>
       <c r="R2" t="n">
         <v>0.7725692061313202</v>
@@ -893,37 +893,37 @@
         <v>0.8734614504690003</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8782816257816257</v>
+        <v>0.8789981776696546</v>
       </c>
       <c r="H6" t="n">
         <v>0.8734614504690003</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8735016000842328</v>
+        <v>0.8734765654573513</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8305193319606496</v>
+        <v>0.8283687943262411</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8429270116841419</v>
+        <v>0.8429374553699459</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8305193319606496</v>
+        <v>0.8283687943262411</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8326587172502233</v>
+        <v>0.8306296978538832</v>
       </c>
       <c r="N6" t="n">
         <v>0.858361930908259</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8631156795488881</v>
+        <v>0.8629328911997162</v>
       </c>
       <c r="P6" t="n">
         <v>0.858361930908259</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8576040212183778</v>
+        <v>0.8577187713252601</v>
       </c>
       <c r="R6" t="n">
         <v>0.8648821779913064</v>
@@ -938,16 +938,16 @@
         <v>0.8643766410690196</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8519103180050331</v>
+        <v>0.8518874399450928</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8554689458440858</v>
+        <v>0.8559014625503328</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8519103180050331</v>
+        <v>0.8518874399450928</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.8509369948730532</v>
+        <v>0.8512286782416443</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/context_integration/evaluation_metrics.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_metrics.xlsx
@@ -562,76 +562,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6650652024708303</v>
+        <v>0.6564859299931365</v>
       </c>
       <c r="C2" t="n">
-        <v>0.727838722474945</v>
+        <v>0.721841688286301</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6650652024708303</v>
+        <v>0.6564859299931365</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6637261923393825</v>
+        <v>0.6558326373868439</v>
       </c>
       <c r="F2" t="n">
         <v>0.6758636467627545</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7159537408372849</v>
+        <v>0.7156651405486846</v>
       </c>
       <c r="H2" t="n">
         <v>0.6758636467627545</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6754103730229087</v>
+        <v>0.6753517827618257</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6736902310684053</v>
+        <v>0.6780141843971631</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7207704319285049</v>
+        <v>0.7261563106742928</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6736902310684053</v>
+        <v>0.6780141843971631</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6812638326675795</v>
+        <v>0.6852242934396159</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7874857012125374</v>
+        <v>0.7917867764813545</v>
       </c>
       <c r="O2" t="n">
-        <v>0.800592546381022</v>
+        <v>0.8049000220594653</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7874857012125374</v>
+        <v>0.7917867764813545</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7853567617702084</v>
+        <v>0.7895324802895383</v>
       </c>
       <c r="R2" t="n">
         <v>0.7725692061313202</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7778172554919252</v>
+        <v>0.7781237330775052</v>
       </c>
       <c r="T2" t="n">
         <v>0.7725692061313202</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7712238612542054</v>
+        <v>0.7712840061605618</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7682452528025625</v>
+        <v>0.7768245252802564</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7826359218639817</v>
+        <v>0.7892638411582256</v>
       </c>
       <c r="X2" t="n">
-        <v>0.7682452528025625</v>
+        <v>0.7768245252802564</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7674291100701333</v>
+        <v>0.7754339125918925</v>
       </c>
     </row>
     <row r="3">
@@ -641,76 +641,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8112102493708534</v>
+        <v>0.8176847403340197</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8207966514864495</v>
+        <v>0.8306183837169406</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8112102493708534</v>
+        <v>0.8176847403340197</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8111071707280153</v>
+        <v>0.8185404329350711</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8112102493708534</v>
+        <v>0.8219400594829558</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8242138907844732</v>
+        <v>0.8349241610117154</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8112102493708534</v>
+        <v>0.8219400594829558</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8125024364594374</v>
+        <v>0.8232908288756373</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8197208876687258</v>
+        <v>0.8154655685197895</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8284665768499497</v>
+        <v>0.8255433940680035</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8197208876687258</v>
+        <v>0.8154655685197895</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8199223638417941</v>
+        <v>0.815189411956425</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8455730954015099</v>
+        <v>0.8412720201326926</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8545911030801108</v>
+        <v>0.8492533939538267</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8455730954015099</v>
+        <v>0.8412720201326926</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8456102159964825</v>
+        <v>0.8410460689111131</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8541294898192634</v>
+        <v>0.8498284145504462</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8619421711243861</v>
+        <v>0.8571340348811713</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8541294898192634</v>
+        <v>0.8498284145504462</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8541764935796747</v>
+        <v>0.8494769476866167</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8541066117593228</v>
+        <v>0.8498055364905056</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8615440293584173</v>
+        <v>0.8570366339939139</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8541066117593228</v>
+        <v>0.8498055364905056</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8539940367270453</v>
+        <v>0.8491655765090369</v>
       </c>
     </row>
     <row r="4">
@@ -720,52 +720,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8368794326241135</v>
+        <v>0.8411805078929306</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8428092006304425</v>
+        <v>0.8478428050927895</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8368794326241135</v>
+        <v>0.8411805078929306</v>
       </c>
       <c r="E4" t="n">
-        <v>0.837042800867278</v>
+        <v>0.84132206772719</v>
       </c>
       <c r="F4" t="n">
         <v>0.8669869595058339</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8733827777519755</v>
+        <v>0.8730950961824604</v>
       </c>
       <c r="H4" t="n">
         <v>0.8669869595058339</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8672795407235553</v>
+        <v>0.86723448644011</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8433310455273393</v>
+        <v>0.8412033859528713</v>
       </c>
       <c r="K4" t="n">
-        <v>0.849635434910638</v>
+        <v>0.8490249371817642</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8433310455273393</v>
+        <v>0.8412033859528713</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8436890525666965</v>
+        <v>0.8418780221405818</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8498741706703271</v>
+        <v>0.8520247083047356</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8566625970168582</v>
+        <v>0.8582545534475244</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8498741706703271</v>
+        <v>0.8520247083047356</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8494232240342564</v>
+        <v>0.8516567262860322</v>
       </c>
       <c r="R4" t="n">
         <v>0.8563257835735529</v>
@@ -780,16 +780,16 @@
         <v>0.8560758551987654</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8563257835735529</v>
+        <v>0.8584534431480211</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8625464660246662</v>
+        <v>0.8643839902026158</v>
       </c>
       <c r="X4" t="n">
-        <v>0.8563257835735529</v>
+        <v>0.8584534431480211</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8560758551987654</v>
+        <v>0.8580478323653455</v>
       </c>
     </row>
     <row r="5">
@@ -799,28 +799,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8348204072294669</v>
+        <v>0.8369709448638755</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8424913763141845</v>
+        <v>0.8450048095849809</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8348204072294669</v>
+        <v>0.8369709448638755</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8328226448728516</v>
+        <v>0.834981754921556</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8476778769160376</v>
+        <v>0.8498284145504462</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8568907361680995</v>
+        <v>0.8593121634240288</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8476778769160376</v>
+        <v>0.8498284145504462</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8461502014655187</v>
+        <v>0.8482817846282467</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -835,28 +835,28 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8369251887439946</v>
+        <v>0.8412262640128118</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8474318443561014</v>
+        <v>0.8529539208459198</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8369251887439946</v>
+        <v>0.8412262640128118</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8351730171881542</v>
+        <v>0.8394540661465577</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8412262640128118</v>
+        <v>0.8455273392816289</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8519692035217915</v>
+        <v>0.85654401938693</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8412262640128118</v>
+        <v>0.8455273392816289</v>
       </c>
       <c r="U5" t="n">
-        <v>0.8394283439992805</v>
+        <v>0.8435770137537075</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -878,52 +878,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8476549988560971</v>
+        <v>0.8519560741249143</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8540070616832077</v>
+        <v>0.8588355878699682</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8476549988560971</v>
+        <v>0.8519560741249143</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8474796938251774</v>
+        <v>0.8514971511529369</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8734614504690003</v>
+        <v>0.8669869595058339</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8789981776696546</v>
+        <v>0.8717134422542763</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8734614504690003</v>
+        <v>0.8669869595058339</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8734765654573513</v>
+        <v>0.8669612660266498</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8283687943262411</v>
+        <v>0.8326698695950583</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8429374553699459</v>
+        <v>0.8461733539050206</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8283687943262411</v>
+        <v>0.8326698695950583</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8306296978538832</v>
+        <v>0.834593199735816</v>
       </c>
       <c r="N6" t="n">
-        <v>0.858361930908259</v>
+        <v>0.8583390528483186</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8629328911997162</v>
+        <v>0.8636111805228868</v>
       </c>
       <c r="P6" t="n">
-        <v>0.858361930908259</v>
+        <v>0.8583390528483186</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8577187713252601</v>
+        <v>0.8577175509731683</v>
       </c>
       <c r="R6" t="n">
         <v>0.8648821779913064</v>
@@ -938,16 +938,16 @@
         <v>0.8643766410690196</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8518874399450928</v>
+        <v>0.8561885152139099</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8559014625503328</v>
+        <v>0.8621835881176961</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8518874399450928</v>
+        <v>0.8561885152139099</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.8512286782416443</v>
+        <v>0.8561439398225683</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/context_integration/evaluation_metrics.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,76 +562,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6564859299931365</v>
+        <v>0.650354609929078</v>
       </c>
       <c r="C2" t="n">
-        <v>0.721841688286301</v>
+        <v>0.7195949511402135</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6564859299931365</v>
+        <v>0.650354609929078</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6558326373868439</v>
+        <v>0.6499308033204485</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6758636467627545</v>
+        <v>0.6802791123312744</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7156651405486846</v>
+        <v>0.7337393381938895</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6758636467627545</v>
+        <v>0.6802791123312744</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6753517827618257</v>
+        <v>0.6814570828139329</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6780141843971631</v>
+        <v>0.6803477465110959</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7261563106742928</v>
+        <v>0.7228110866201387</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6780141843971631</v>
+        <v>0.6803477465110959</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6852242934396159</v>
+        <v>0.6868632838916314</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7917867764813545</v>
+        <v>0.7896591169068863</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8049000220594653</v>
+        <v>0.8032963687462733</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7917867764813545</v>
+        <v>0.7896591169068863</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7895324802895383</v>
+        <v>0.7890163061484834</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7725692061313202</v>
+        <v>0.7704644246167925</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7781237330775052</v>
+        <v>0.7813941049778588</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7725692061313202</v>
+        <v>0.7704644246167925</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7712840061605618</v>
+        <v>0.7701386303190259</v>
       </c>
       <c r="V2" t="n">
         <v>0.7768245252802564</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7892638411582256</v>
+        <v>0.7961989291534056</v>
       </c>
       <c r="X2" t="n">
         <v>0.7768245252802564</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7754339125918925</v>
+        <v>0.7747603453967136</v>
       </c>
     </row>
     <row r="3">
@@ -641,76 +641,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8176847403340197</v>
+        <v>0.8132921528254405</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8306183837169406</v>
+        <v>0.821120947099177</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8176847403340197</v>
+        <v>0.8132921528254405</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8185404329350711</v>
+        <v>0.814105879425558</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8219400594829558</v>
+        <v>0.8154884465797301</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8349241610117154</v>
+        <v>0.825673924973134</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8219400594829558</v>
+        <v>0.8154884465797301</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8232908288756373</v>
+        <v>0.8165697171120989</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8154655685197895</v>
+        <v>0.7876687256920614</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8255433940680035</v>
+        <v>0.8000361554656141</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8154655685197895</v>
+        <v>0.7876687256920614</v>
       </c>
       <c r="M3" t="n">
-        <v>0.815189411956425</v>
+        <v>0.7882568063073884</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8412720201326926</v>
+        <v>0.8626401281171358</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8492533939538267</v>
+        <v>0.8667069263563292</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8412720201326926</v>
+        <v>0.8626401281171358</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8410460689111131</v>
+        <v>0.86215461177632</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8498284145504462</v>
+        <v>0.8669640814458933</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8571340348811713</v>
+        <v>0.8718403436477388</v>
       </c>
       <c r="T3" t="n">
-        <v>0.8498284145504462</v>
+        <v>0.8669640814458933</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8494769476866167</v>
+        <v>0.8669515214950227</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8498055364905056</v>
+        <v>0.8626630061770761</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8570366339939139</v>
+        <v>0.867521862905375</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8498055364905056</v>
+        <v>0.8626630061770761</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8491655765090369</v>
+        <v>0.8625959207273046</v>
       </c>
     </row>
     <row r="4">
@@ -720,76 +720,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8411805078929306</v>
+        <v>0.8476549988560971</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8478428050927895</v>
+        <v>0.8543875929254267</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8411805078929306</v>
+        <v>0.8476549988560971</v>
       </c>
       <c r="E4" t="n">
-        <v>0.84132206772719</v>
+        <v>0.8484254766264593</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8669869595058339</v>
+        <v>0.8712651567147105</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8730950961824604</v>
+        <v>0.875819249782422</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8669869595058339</v>
+        <v>0.8712651567147105</v>
       </c>
       <c r="I4" t="n">
-        <v>0.86723448644011</v>
+        <v>0.8715984140059622</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8412033859528713</v>
+        <v>0.8541066117593228</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8490249371817642</v>
+        <v>0.8607190002137051</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8412033859528713</v>
+        <v>0.8541066117593228</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8418780221405818</v>
+        <v>0.8548517114911736</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8520247083047356</v>
+        <v>0.8584305650880806</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8582545534475244</v>
+        <v>0.8631187064716158</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8520247083047356</v>
+        <v>0.8584305650880806</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8516567262860322</v>
+        <v>0.858065316010989</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8563257835735529</v>
+        <v>0.8648821779913064</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8625464660246662</v>
+        <v>0.8704746993327854</v>
       </c>
       <c r="T4" t="n">
-        <v>0.8563257835735529</v>
+        <v>0.8648821779913064</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8560758551987654</v>
+        <v>0.8647697933549733</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8584534431480211</v>
+        <v>0.8627316403568978</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8643839902026158</v>
+        <v>0.8680837241827162</v>
       </c>
       <c r="X4" t="n">
-        <v>0.8584534431480211</v>
+        <v>0.8627316403568978</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8580478323653455</v>
+        <v>0.8625653863895216</v>
       </c>
     </row>
     <row r="5">
@@ -799,28 +799,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8369709448638755</v>
+        <v>0.847609242736216</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8450048095849809</v>
+        <v>0.8555459572210221</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8369709448638755</v>
+        <v>0.847609242736216</v>
       </c>
       <c r="E5" t="n">
-        <v>0.834981754921556</v>
+        <v>0.8472833278025794</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8498284145504462</v>
+        <v>0.860489590482727</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8593121634240288</v>
+        <v>0.8677771628369717</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8498284145504462</v>
+        <v>0.860489590482727</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8482817846282467</v>
+        <v>0.8604651374710626</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -835,28 +835,28 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8412262640128118</v>
+        <v>0.828231525966598</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8529539208459198</v>
+        <v>0.8403736679872938</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8412262640128118</v>
+        <v>0.828231525966598</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8394540661465577</v>
+        <v>0.825641043605575</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8455273392816289</v>
+        <v>0.838984214138641</v>
       </c>
       <c r="S5" t="n">
-        <v>0.85654401938693</v>
+        <v>0.8495676618865732</v>
       </c>
       <c r="T5" t="n">
-        <v>0.8455273392816289</v>
+        <v>0.838984214138641</v>
       </c>
       <c r="U5" t="n">
-        <v>0.8435770137537075</v>
+        <v>0.8367526725646955</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -874,80 +874,159 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8241134751773049</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8354763150338858</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8241134751773049</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8262126705296708</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8026309768931595</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8107913545846541</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.8026309768931595</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.8033751893513579</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.7661404712880348</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7735463560335325</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7661404712880348</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7648212742271767</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.8005033173186915</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.8135117729731988</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.8005033173186915</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.8010425954848264</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.8154655685197895</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.8268603534401769</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.8154655685197895</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.8167799318676142</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.8155342026996111</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.8196573393928437</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.8155342026996111</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.814054527557275</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
           <t>Ensemble</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.8519560741249143</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8588355878699682</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8519560741249143</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8514971511529369</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.8669869595058339</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.8717134422542763</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8669869595058339</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.8669612660266498</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8326698695950583</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.8461733539050206</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.8326698695950583</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.834593199735816</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.8583390528483186</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.8636111805228868</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.8583390528483186</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.8577175509731683</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.8648821779913064</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.8712407940098277</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.8648821779913064</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.8643766410690196</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.8561885152139099</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.8621835881176961</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.8561885152139099</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.8561439398225683</v>
+      <c r="B7" t="n">
+        <v>0.8583848089681995</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8624917545862818</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8583848089681995</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8586828892117225</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8670098375657744</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8695623172171265</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.8670098375657744</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8670148878123612</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8283687943262411</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8402276748290086</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8283687943262411</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8303815827800278</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.879775795012583</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.8832435009377537</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.879775795012583</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.8795901069868443</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.8627316403568978</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.8680984788891563</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.8627316403568978</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.8620746383400251</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.8625943719972546</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.8685539188536253</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.8625943719972546</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.8628632792574497</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/context_integration/evaluation_metrics.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_metrics.xlsx
@@ -878,76 +878,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8241134751773049</v>
+        <v>0.8219858156028369</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8354763150338858</v>
+        <v>0.8340575926717945</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8241134751773049</v>
+        <v>0.8219858156028369</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8262126705296708</v>
+        <v>0.824133966676615</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8026309768931595</v>
+        <v>0.8134294211850837</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8107913545846541</v>
+        <v>0.8211924573149492</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8026309768931595</v>
+        <v>0.8134294211850837</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8033751893513579</v>
+        <v>0.8138681890195073</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7661404712880348</v>
+        <v>0.7533287577213453</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7735463560335325</v>
+        <v>0.7644274484152398</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7661404712880348</v>
+        <v>0.7533287577213453</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7648212742271767</v>
+        <v>0.7534000713955357</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8005033173186915</v>
+        <v>0.8047357584076871</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8135117729731988</v>
+        <v>0.8137424017370091</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8005033173186915</v>
+        <v>0.8047357584076871</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8010425954848264</v>
+        <v>0.8051615125966769</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8154655685197895</v>
+        <v>0.8197208876687258</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8268603534401769</v>
+        <v>0.8289062718262024</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8154655685197895</v>
+        <v>0.8197208876687258</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8167799318676142</v>
+        <v>0.8206418104533046</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8155342026996111</v>
+        <v>0.8133836650652025</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8196573393928437</v>
+        <v>0.8201578911488422</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8155342026996111</v>
+        <v>0.8133836650652025</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.814054527557275</v>
+        <v>0.8125355882640468</v>
       </c>
     </row>
     <row r="7">
@@ -957,76 +957,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8583848089681995</v>
+        <v>0.8541066117593228</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8624917545862818</v>
+        <v>0.8576568759891664</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8583848089681995</v>
+        <v>0.8541066117593228</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8586828892117225</v>
+        <v>0.8542573678287834</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8670098375657744</v>
+        <v>0.8605811027224892</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8695623172171265</v>
+        <v>0.8639139817632244</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8670098375657744</v>
+        <v>0.8605811027224892</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8670148878123612</v>
+        <v>0.860939356328483</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8283687943262411</v>
+        <v>0.8262411347517731</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8402276748290086</v>
+        <v>0.8374450754791903</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8283687943262411</v>
+        <v>0.8262411347517731</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8303815827800278</v>
+        <v>0.8282070169752302</v>
       </c>
       <c r="N7" t="n">
-        <v>0.879775795012583</v>
+        <v>0.8776710134980554</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8832435009377537</v>
+        <v>0.8818057467490332</v>
       </c>
       <c r="P7" t="n">
-        <v>0.879775795012583</v>
+        <v>0.8776710134980554</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8795901069868443</v>
+        <v>0.8773861715477101</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8627316403568978</v>
+        <v>0.8605811027224892</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8680984788891563</v>
+        <v>0.8661648814547099</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8627316403568978</v>
+        <v>0.8605811027224892</v>
       </c>
       <c r="U7" t="n">
-        <v>0.8620746383400251</v>
+        <v>0.8599897504776187</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8625943719972546</v>
+        <v>0.8604438343628461</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8685539188536253</v>
+        <v>0.866328962456571</v>
       </c>
       <c r="X7" t="n">
-        <v>0.8625943719972546</v>
+        <v>0.8604438343628461</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.8628632792574497</v>
+        <v>0.8606441137027421</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/context_integration/evaluation_metrics.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_metrics.xlsx
@@ -878,76 +878,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8219858156028369</v>
+        <v>0.8262640128117136</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8340575926717945</v>
+        <v>0.8361151140958082</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8219858156028369</v>
+        <v>0.8262640128117136</v>
       </c>
       <c r="E6" t="n">
-        <v>0.824133966676615</v>
+        <v>0.827942324055343</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8134294211850837</v>
+        <v>0.813406543125143</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8211924573149492</v>
+        <v>0.8226640132472383</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8134294211850837</v>
+        <v>0.813406543125143</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8138681890195073</v>
+        <v>0.8142274241189149</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7533287577213453</v>
+        <v>0.7618165179592772</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7644274484152398</v>
+        <v>0.7715510414696543</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7533287577213453</v>
+        <v>0.7618165179592772</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7534000713955357</v>
+        <v>0.7609529102436011</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8047357584076871</v>
+        <v>0.8068862960420956</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8137424017370091</v>
+        <v>0.8228227651648335</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8047357584076871</v>
+        <v>0.8068862960420956</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8051615125966769</v>
+        <v>0.8082327911765731</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8197208876687258</v>
+        <v>0.8068862960420956</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8289062718262024</v>
+        <v>0.8211608850485754</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8197208876687258</v>
+        <v>0.8068862960420956</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8206418104533046</v>
+        <v>0.8079642493184324</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8133836650652025</v>
+        <v>0.8176161061541981</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8201578911488422</v>
+        <v>0.8206326696415698</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8133836650652025</v>
+        <v>0.8176161061541981</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.8125355882640468</v>
+        <v>0.8169122273468202</v>
       </c>
     </row>
     <row r="7">
@@ -957,52 +957,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8541066117593228</v>
+        <v>0.8520018302447954</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8576568759891664</v>
+        <v>0.8560606784491798</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8541066117593228</v>
+        <v>0.8520018302447954</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8542573678287834</v>
+        <v>0.8526172370702561</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8605811027224892</v>
+        <v>0.8712880347746511</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8639139817632244</v>
+        <v>0.8747590861838775</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8605811027224892</v>
+        <v>0.8712880347746511</v>
       </c>
       <c r="I7" t="n">
-        <v>0.860939356328483</v>
+        <v>0.8715642118514711</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8262411347517731</v>
+        <v>0.8283687943262411</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8374450754791903</v>
+        <v>0.8405181121986848</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8262411347517731</v>
+        <v>0.8283687943262411</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8282070169752302</v>
+        <v>0.8305318399463862</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8776710134980554</v>
+        <v>0.8797986730725235</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8818057467490332</v>
+        <v>0.8840739423079615</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8776710134980554</v>
+        <v>0.8797986730725235</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8773861715477101</v>
+        <v>0.8795942503981061</v>
       </c>
       <c r="R7" t="n">
         <v>0.8605811027224892</v>
@@ -1017,16 +1017,16 @@
         <v>0.8599897504776187</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8604438343628461</v>
+        <v>0.8625714939373141</v>
       </c>
       <c r="W7" t="n">
-        <v>0.866328962456571</v>
+        <v>0.8692726364377155</v>
       </c>
       <c r="X7" t="n">
-        <v>0.8604438343628461</v>
+        <v>0.8625714939373141</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.8606441137027421</v>
+        <v>0.86305094578302</v>
       </c>
     </row>
   </sheetData>

--- a/4_classification&evaluation/output/context_integration/evaluation_metrics.xlsx
+++ b/4_classification&evaluation/output/context_integration/evaluation_metrics.xlsx
@@ -878,76 +878,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8262640128117136</v>
+        <v>0.8090597117364448</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8361151140958082</v>
+        <v>0.8238193031958776</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8262640128117136</v>
+        <v>0.8090597117364448</v>
       </c>
       <c r="E6" t="n">
-        <v>0.827942324055343</v>
+        <v>0.8114218564321757</v>
       </c>
       <c r="F6" t="n">
-        <v>0.813406543125143</v>
+        <v>0.8091054678563259</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8226640132472383</v>
+        <v>0.8197978904605989</v>
       </c>
       <c r="H6" t="n">
-        <v>0.813406543125143</v>
+        <v>0.8091054678563259</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8142274241189149</v>
+        <v>0.8103036885258821</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7618165179592772</v>
+        <v>0.7510638297872342</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7715510414696543</v>
+        <v>0.7630757257173136</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7618165179592772</v>
+        <v>0.7510638297872342</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7609529102436011</v>
+        <v>0.7502166465975405</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8068862960420956</v>
+        <v>0.7983299016243424</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8228227651648335</v>
+        <v>0.8115330914249327</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8068862960420956</v>
+        <v>0.7983299016243424</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8082327911765731</v>
+        <v>0.7996338906017397</v>
       </c>
       <c r="R6" t="n">
-        <v>0.8068862960420956</v>
+        <v>0.7983070235644018</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8211608850485754</v>
+        <v>0.8063140172651634</v>
       </c>
       <c r="T6" t="n">
-        <v>0.8068862960420956</v>
+        <v>0.7983070235644018</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8079642493184324</v>
+        <v>0.7985360193359798</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8176161061541981</v>
+        <v>0.8176618622740792</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8206326696415698</v>
+        <v>0.8217103988245121</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8176161061541981</v>
+        <v>0.8176618622740792</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.8169122273468202</v>
+        <v>0.816752142757274</v>
       </c>
     </row>
     <row r="7">
@@ -957,76 +957,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8520018302447954</v>
+        <v>0.8541066117593228</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8560606784491798</v>
+        <v>0.8580958377807846</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8520018302447954</v>
+        <v>0.8541066117593228</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8526172370702561</v>
+        <v>0.8546150831566068</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8712880347746511</v>
+        <v>0.8734156943491191</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8747590861838775</v>
+        <v>0.8755042041822045</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8712880347746511</v>
+        <v>0.8734156943491191</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8715642118514711</v>
+        <v>0.8733551257699386</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8283687943262411</v>
+        <v>0.8326698695950583</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8405181121986848</v>
+        <v>0.8425791006061886</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8283687943262411</v>
+        <v>0.8326698695950583</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8305318399463862</v>
+        <v>0.8345833091371408</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8797986730725235</v>
+        <v>0.8798215511324641</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8840739423079615</v>
+        <v>0.8845616733037713</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8797986730725235</v>
+        <v>0.8798215511324641</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8795942503981061</v>
+        <v>0.8801393327533831</v>
       </c>
       <c r="R7" t="n">
         <v>0.8605811027224892</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8661648814547099</v>
+        <v>0.8659991445317573</v>
       </c>
       <c r="T7" t="n">
         <v>0.8605811027224892</v>
       </c>
       <c r="U7" t="n">
-        <v>0.8599897504776187</v>
+        <v>0.8599540733555735</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8625714939373141</v>
+        <v>0.8647449096316633</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8692726364377155</v>
+        <v>0.8707042560563728</v>
       </c>
       <c r="X7" t="n">
-        <v>0.8625714939373141</v>
+        <v>0.8647449096316633</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.86305094578302</v>
+        <v>0.8651529154314082</v>
       </c>
     </row>
   </sheetData>
